--- a/asset/file/406 RAST Calculater.xlsx
+++ b/asset/file/406 RAST Calculater.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebSite\Sports Science\asset\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4072C-99F4-401D-8D74-3ABD4B0FA980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B90D21-66A9-430F-A240-2EE86C65386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6FD48D3D-4914-434A-A8E8-2B8CFC9FFD90}"/>
   </bookViews>
   <sheets>
     <sheet name="RAST" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RAST!$I$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,9 +58,6 @@
     <t>Fatigue Index</t>
   </si>
   <si>
-    <t>Power = Weight * Distance^2 / Time^3</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -76,7 +76,10 @@
     <t>Min Power</t>
   </si>
   <si>
-    <t>Fatigue = Max Power - Min Power / Total Sprint Time</t>
+    <t>You Can make changes in only green cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME :  </t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,18 +131,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -430,11 +439,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,27 +501,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,19 +552,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,34 +615,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -931,109 +1005,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD2CE16-B495-460F-A03E-67C187750A98}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="52">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="46">
         <f>B7*F7</f>
         <v>67375</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53">
         <v>55</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="11">
+      <c r="C7" s="54"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <v>1225</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="50"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1056,60 +1127,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="58">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57">
         <v>5.54</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>5.48</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>5.75</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <v>6.42</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <v>6.86</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="57">
         <v>6.62</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="48">
         <f>SUM(B13:G14)</f>
         <v>36.669999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
@@ -1139,22 +1210,22 @@
       <c r="H18" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
         <v>5</v>
@@ -1192,107 +1263,120 @@
     </row>
     <row r="23" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="7">
         <f>B26-F26</f>
         <v>200.70681989538312</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44">
+      <c r="B26" s="38">
         <f>MAX(B22:G22)</f>
         <v>409.40873345666648</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="46">
+      <c r="C26" s="39"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="40">
         <f>MIN(B22:G22)</f>
         <v>208.70191356128336</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="28" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="H29" s="15" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="H29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24">
+      <c r="B32" s="17">
         <f>I22/6</f>
         <v>309.26937465095585</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="H32" s="24">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="H32" s="17">
         <f>J25/I13</f>
         <v>5.4733247858026495</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SKoWl7wLBJKr9xRW+4YFc9FmONm8Trw++y2f5VPN2Y/OEXdGPqTEaBcgvMlNPC32i6frUN7enQjC+kh+N5msTw==" saltValue="Rx0NMJhFyOsts7racuyuog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b1fveeAZhR+hE4YjK2iBwSCO/jj95G7bHyW6zMNkqvT4rRTSijxKRmAt29dBnwdJdqW+KUWAe/uEbkKrhklC+A==" saltValue="uCrwMmfJWlUh0fIGV2DpEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="F7:G8"/>
     <mergeCell ref="B29:D31"/>
     <mergeCell ref="H29:J31"/>
     <mergeCell ref="B32:D33"/>
@@ -1309,19 +1393,6 @@
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="F24:G25"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="F7:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
